--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -453,16 +453,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>27.83333333333333</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>0.0276686746259295</v>
+        <v>0.0315524255098646</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -1,81 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>test_mean</t>
-  </si>
-  <si>
-    <t>test_ci</t>
-  </si>
-  <si>
-    <t>brf_batch_add</t>
-  </si>
-  <si>
-    <t>brf_batch_remove</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>num_iterations</t>
-  </si>
-  <si>
-    <t>enzymes</t>
-  </si>
-  <si>
-    <t>imdb</t>
-  </si>
-  <si>
-    <t>mutag</t>
-  </si>
-  <si>
-    <t>proteins</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -84,18 +46,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -103,16 +77,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,210 +441,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_iterations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>test_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_ci</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>brf_batch_add</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brf_batch_remove</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>enzymes</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>32.16666666666666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0371333931776896</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0315524255098646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.83333333333333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0339280283999985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>32.16666666666666</v>
-      </c>
-      <c r="D2">
-        <v>0.0371333931776896</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="C5" t="n">
+        <v>54.89999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0453431361950185</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>0.0315524255098646</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C6" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.030338094864378</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>54.89999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.0453431361950185</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>mutag</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78.49999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0980306074652197</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>51.8</v>
-      </c>
-      <c r="D5">
-        <v>0.030338094864378</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
+      <c r="C8" t="n">
+        <v>74.00000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0713442359269478</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0874642784226795</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>proteins</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>78.49999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.0980306074652197</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="C10" t="n">
+        <v>75.17857142857143</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0327521614803153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>74.00000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.0713442359269478</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>77</v>
-      </c>
-      <c r="D8">
-        <v>0.0874642784226795</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>75.17857142857143</v>
-      </c>
-      <c r="D9">
-        <v>0.0327521614803153</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>75.26785714285715</v>
-      </c>
-      <c r="D10">
-        <v>0.0249744767672101</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="C11" t="n">
+        <v>76.16071428571429</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0322666267849868</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70.44642857142857</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0296073367217502</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -1,43 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>test_mean</t>
+  </si>
+  <si>
+    <t>test_ci</t>
+  </si>
+  <si>
+    <t>brf_batch_add</t>
+  </si>
+  <si>
+    <t>brf_batch_remove</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>num_iterations</t>
+  </si>
+  <si>
+    <t>enzymes</t>
+  </si>
+  <si>
+    <t>imdb</t>
+  </si>
+  <si>
+    <t>mutag</t>
+  </si>
+  <si>
+    <t>proteins</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +84,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +103,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,263 +400,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>num_iterations</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>test_mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>test_ci</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>brf_batch_add</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>brf_batch_remove</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>enzymes</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>32.16666666666666</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0371333931776896</v>
       </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>32</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0315524255098646</v>
       </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>31.83333333333333</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0339280283999985</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>54.89999999999999</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0453431361950185</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>51.8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.030338094864378</v>
       </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>mutag</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>78.49999999999999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.0980306074652197</v>
       </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>74.00000000000001</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0713442359269478</v>
       </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>77</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0874642784226795</v>
       </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>proteins</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>75.17857142857143</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0327521614803153</v>
       </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>76.16071428571429</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0322666267849868</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>70.44642857142857</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>74.91071428571429</v>
+      </c>
+      <c r="D12">
         <v>0.0296073367217502</v>
       </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -707,6 +640,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,48 +509,48 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>51.8</v>
+        <v>53.5</v>
       </c>
       <c r="D6">
-        <v>0.030338094864378</v>
+        <v>0.0397793916494458</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>52.50000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.041206795556073</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="C8">
         <v>78.49999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.0980306074652197</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>74.00000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.0713442359269478</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -562,51 +562,51 @@
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
+        <v>74.00000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.0713442359269478</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>77</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.0874642784226795</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>75.17857142857143</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.0327521614803153</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>76.16071428571429</v>
-      </c>
-      <c r="D11">
-        <v>0.0322666267849868</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -618,27 +618,45 @@
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
+        <v>76.16071428571429</v>
+      </c>
+      <c r="D12">
+        <v>0.0322666267849868</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>74.91071428571429</v>
       </c>
-      <c r="D12">
-        <v>0.0296073367217502</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
+      <c r="D13">
+        <v>0.033692789757345</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -527,16 +527,16 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>52.50000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="D7">
         <v>0.041206795556073</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -1,81 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>test_mean</t>
-  </si>
-  <si>
-    <t>test_ci</t>
-  </si>
-  <si>
-    <t>brf_batch_add</t>
-  </si>
-  <si>
-    <t>brf_batch_remove</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>num_iterations</t>
-  </si>
-  <si>
-    <t>enzymes</t>
-  </si>
-  <si>
-    <t>imdb</t>
-  </si>
-  <si>
-    <t>mutag</t>
-  </si>
-  <si>
-    <t>proteins</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -84,18 +46,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -103,16 +77,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,254 +441,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_iterations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>test_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_ci</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>brf_batch_add</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brf_batch_remove</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>enzymes</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>32.16666666666666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0371333931776896</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0315524255098646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.83333333333333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0339280283999985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>32.16666666666666</v>
-      </c>
-      <c r="D2">
-        <v>0.0371333931776896</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="C5" t="n">
+        <v>54.89999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0453431361950185</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>0.0315524255098646</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>31.83333333333333</v>
-      </c>
-      <c r="D4">
-        <v>0.0339280283999985</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C6" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0397793916494458</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.041206795556073</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>mutag</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>54.89999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.0453431361950185</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="C8" t="n">
+        <v>78.49999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0980306074652197</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>53.5</v>
-      </c>
-      <c r="D6">
-        <v>0.0397793916494458</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>53.1</v>
-      </c>
-      <c r="D7">
-        <v>0.041206795556073</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C9" t="n">
+        <v>74.00000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0713442359269478</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0874642784226795</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>proteins</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>78.49999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.0980306074652197</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="C11" t="n">
+        <v>75.17857142857143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0327521614803153</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>74.00000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.0713442359269478</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>77</v>
-      </c>
-      <c r="D10">
-        <v>0.0874642784226795</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>75.17857142857143</v>
-      </c>
-      <c r="D11">
-        <v>0.0327521614803153</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>76.16071428571429</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.0322666267849868</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
         <v>74.91071428571429</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.033692789757345</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -658,6 +725,6 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -499,13 +499,13 @@
         <v>32.16666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0371333931776896</v>
+        <v>0.0302030167735314</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>0.0315524255098646</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -535,13 +535,13 @@
         <v>31.83333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0339280283999985</v>
+        <v>0.0255821118057998</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -557,10 +557,10 @@
         <v>54.89999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0453431361950185</v>
+        <v>0.0177651343929619</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -575,10 +575,10 @@
         <v>53.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0397793916494458</v>
+        <v>0.0273130005674953</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -593,13 +593,13 @@
         <v>53.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.041206795556073</v>
+        <v>0.0204841402065109</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -615,13 +615,13 @@
         <v>78.49999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0980306074652197</v>
+        <v>0.0600832755431992</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +633,13 @@
         <v>74.00000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0713442359269478</v>
+        <v>0.07042726744663599</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -651,13 +651,13 @@
         <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0874642784226795</v>
+        <v>0.0651152823843988</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>75.17857142857143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0327521614803153</v>
+        <v>0.0229795827744934</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -691,13 +691,13 @@
         <v>76.16071428571429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0322666267849868</v>
+        <v>0.0264924421259331</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -709,13 +709,13 @@
         <v>74.91071428571429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.033692789757345</v>
+        <v>0.0227914793423385</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,19 +509,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>52.79999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0203568170399991</v>
+        <v>0.0226323269290239</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -512,17 +529,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mutag</t>
+          <t>imdb</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>69.5</v>
+        <v>52.79999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0478539444560215</v>
+        <v>0.0203568170399991</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -532,28 +549,110 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>proteins</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0274590604354919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>mutag</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0478539444560215</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0633245607959502</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>proteins</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.23214285714286</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0195696688468535</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>69.64285714285714</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D9" t="n">
         <v>0.0260003924617161</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E9" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F9" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25.66666666666666</v>
+        <v>26.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0356526452189891</v>
+        <v>0.0284604989415154</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -514,50 +514,50 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0226323269290239</v>
+        <v>0.0290784379834191</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0310733898304571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>imdb</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>52.79999999999999</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.0203568170399991</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0274590604354919</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -567,40 +567,36 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>mutag</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.50000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0219544984001001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0478539444560215</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>71.5</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0633245607959502</v>
+        <v>0.0181548891486563</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -609,23 +605,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>proteins</t>
+          <t>mutag</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>62.23214285714286</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0195696688468535</v>
+        <v>0.0569209978830308</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -634,24 +630,100 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>69.64285714285714</v>
+        <v>71.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0260003924617161</v>
+        <v>0.0633245607959502</v>
       </c>
       <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0707106781186547</v>
+      </c>
+      <c r="E10" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>proteins</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>71.16071428571429</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0178660691975439</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71.96428571428571</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.018070158058105</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0239312365253585</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -514,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.5</v>
+        <v>25.66666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0290784379834191</v>
+        <v>0.0442718872423573</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -590,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>49.40000000000001</v>
+        <v>50.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0181548891486563</v>
+        <v>0.0267132925713024</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,23 +489,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>enzymes</t>
+          <t>mutag</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.5</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0284604989415154</v>
+        <v>0.0678232998312526</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.66666666666666</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0442718872423573</v>
+        <v>0.0586515131944607</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -532,198 +532,21 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.16666666666667</v>
+        <v>63.49999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0310733898304571</v>
+        <v>0.0448330235429197</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>52.79999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0203568170399991</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50.50000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0219544984001001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0267132925713024</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>mutag</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>72</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0569209978830308</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0633245607959502</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>75</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0707106781186547</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>proteins</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>71.16071428571429</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0178660691975439</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>71.96428571428571</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.018070158058105</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0239312365253585</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>72.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0586515131944607</v>
+        <v>0.0587367006223536</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,21 +532,57 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>63.49999999999999</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0448330235429197</v>
+        <v>0.058309518948453</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67.00000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0428952211790544</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0518652099195597</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_graph_classification_GCN_brf.csv.xlsx
+++ b/results/summary_graph_classification_GCN_brf.csv.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,97 +472,22 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0678232998312526</v>
+        <v>0.0190816665938801</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0587367006223536</v>
-      </c>
-      <c r="E3" t="n">
         <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.058309518948453</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67.00000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0428952211790544</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0518652099195597</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>